--- a/MSXT/document/Schedule.xlsx
+++ b/MSXT/document/Schedule.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Dead Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,11 +34,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Product Website</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eExamiOSPad</t>
+    <t>eExamiOSPad,ProductWebsite</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -112,7 +108,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -123,6 +119,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -421,7 +420,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -459,16 +458,12 @@
         <v>41517</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75">
-      <c r="A5" s="2">
-        <v>41547</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A5" s="2"/>
+      <c r="B5" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
